--- a/Data/RSPB_data_filtered/RSPB_Data_2003-04_JAN04.xlsx
+++ b/Data/RSPB_data_filtered/RSPB_Data_2003-04_JAN04.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\injg1\Desktop\RSPB Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_CURRENT\SNH_Moray_Firth\SNH_Moray_Firth\Data\RSPB_data_filtered\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C9822-7BA8-4426-9885-FDA022CF1A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outer_Dornoch_Firth" sheetId="6" r:id="rId1"/>
     <sheet name="Inverness_Beauly_Firth" sheetId="10" r:id="rId2"/>
     <sheet name="Nairn_Culbin_Bars" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="82">
   <si>
     <t>Inver</t>
   </si>
@@ -272,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -769,21 +780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
@@ -835,11 +845,8 @@
       <c r="Q1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -891,11 +898,8 @@
       <c r="Q2" s="14">
         <v>37995</v>
       </c>
-      <c r="R2" s="14">
-        <v>37999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -947,9 +951,8 @@
       <c r="Q3" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1001,11 +1004,8 @@
       <c r="Q4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1057,11 +1057,8 @@
       <c r="Q5" s="13">
         <v>7</v>
       </c>
-      <c r="R5" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -1113,11 +1110,8 @@
       <c r="Q6" s="13">
         <v>1</v>
       </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -1169,11 +1163,8 @@
       <c r="Q7" s="13">
         <v>1</v>
       </c>
-      <c r="R7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1225,11 +1216,8 @@
       <c r="Q8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1261,11 +1249,8 @@
       <c r="Q9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,9 +1274,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1315,9 +1299,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1337,9 +1320,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,9 +1341,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1381,9 +1362,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1403,9 +1383,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1431,11 +1410,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1455,9 +1431,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1497,11 +1472,8 @@
       <c r="Q18" s="1">
         <v>3</v>
       </c>
-      <c r="R18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1539,9 +1511,8 @@
       <c r="Q19" s="1">
         <v>4</v>
       </c>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1561,9 +1532,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,9 +1553,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,9 +1574,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,9 +1599,8 @@
       <c r="Q23" s="1">
         <v>4</v>
       </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1653,9 +1620,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,9 +1645,8 @@
       <c r="Q25" s="1">
         <v>3</v>
       </c>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,9 +1668,8 @@
       <c r="Q26" s="1">
         <v>4</v>
       </c>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1725,9 +1689,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1747,9 +1710,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1769,9 +1731,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1801,11 +1762,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1833,9 +1791,8 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,11 +1812,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1881,9 +1835,8 @@
       <c r="Q33" s="1">
         <v>3</v>
       </c>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1903,9 +1856,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,9 +1877,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1947,9 +1898,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1969,11 +1919,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -2007,11 +1954,8 @@
       <c r="Q38" s="1">
         <v>3</v>
       </c>
-      <c r="R38" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2053,11 +1997,8 @@
       <c r="Q39" s="1">
         <v>18</v>
       </c>
-      <c r="R39" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,9 +2034,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2121,9 +2061,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2141,9 +2080,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2161,9 +2099,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2181,9 +2118,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2201,9 +2137,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -2221,9 +2156,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2233,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3722,11 +3656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
